--- a/public/asset-admin/files/format-import.xlsx
+++ b/public/asset-admin/files/format-import.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Umaru Syahid Mas'udi\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\bangbaraPos\public\asset-admin\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2CD983A1-604F-49B8-AAC9-DB2433E6DC9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2E54C6C-C346-4404-99B8-466B8E36B2E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{F42738F1-DA31-4C2F-952B-21CE49E1BE3D}"/>
   </bookViews>
@@ -57,7 +57,7 @@
     <t>status_produk</t>
   </si>
   <si>
-    <t>C:\Users\LENOVO X260\Documents\dashboard-staff.jpg</t>
+    <t>Copy as Path Your Image!</t>
   </si>
 </sst>
 </file>
@@ -412,7 +412,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
